--- a/DatabaseNieuw.xlsx
+++ b/DatabaseNieuw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WePla\OneDrive\Bureaublad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E825C4-796C-49C5-B37B-DBB8208AE445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B603CCA-EB17-4B53-9975-B672C2A170ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA0CE4E0-186B-4EE0-9D48-B60DD115CE29}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BA0CE4E0-186B-4EE0-9D48-B60DD115CE29}"/>
   </bookViews>
   <sheets>
     <sheet name="Normaliseren -&gt; relaties" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
   <si>
     <t>Klantid</t>
   </si>
@@ -299,6 +299,18 @@
   </si>
   <si>
     <t>Klantenafspraak</t>
+  </si>
+  <si>
+    <t>Afvalnaam</t>
+  </si>
+  <si>
+    <t>Klantafspraakregel</t>
+  </si>
+  <si>
+    <t>0nv</t>
+  </si>
+  <si>
+    <t>afvalnummerlnummer</t>
   </si>
 </sst>
 </file>
@@ -662,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -738,6 +750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -759,23 +772,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>355691</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>93344</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>149678</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142769</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>134074</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Afbeelding 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{966809DE-A1EC-4158-B802-8E51AC32D087}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834640EE-717F-4463-923C-02526F69FA46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -798,8 +811,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8574405" y="624023"/>
-          <a:ext cx="5917202" cy="4362889"/>
+          <a:off x="9326880" y="1188720"/>
+          <a:ext cx="8759914" cy="5852160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1118,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C908553C-A40F-48B6-8685-7354D4FF4214}">
-  <dimension ref="D5:O49"/>
+  <dimension ref="D5:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH27" sqref="AH27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1132,7 +1145,7 @@
     <row r="5" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13" t="s">
@@ -1642,13 +1655,9 @@
       <c r="E30" s="3"/>
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="J30" s="2"/>
       <c r="K30" s="3"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -1659,9 +1668,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="3"/>
       <c r="H31" s="9" t="s">
         <v>13</v>
@@ -1684,13 +1691,9 @@
         <v>13</v>
       </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="J32" s="2"/>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1702,9 +1705,13 @@
         <v>19</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="9"/>
+      <c r="H33" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="I33" s="9"/>
-      <c r="J33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1714,12 +1721,12 @@
         <v>79</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="11"/>
+      <c r="H34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="6" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="K34" s="7"/>
     </row>
@@ -1729,13 +1736,13 @@
       <c r="F35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="I35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" s="3"/>
       <c r="J35" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1745,13 +1752,13 @@
       <c r="F36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I36" s="9"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="3"/>
       <c r="J36" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="K36" s="3"/>
     </row>
@@ -1761,63 +1768,59 @@
       <c r="F37" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="11"/>
+      <c r="H37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="2"/>
       <c r="E38" s="9"/>
       <c r="F38" s="10" t="s">
         <v>73</v>
       </c>
       <c r="G38" s="9"/>
-      <c r="H38" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K38" s="7"/>
+      <c r="H38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38" s="3"/>
     </row>
     <row r="39" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D39" s="4"/>
-      <c r="E39" s="12"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="9"/>
-      <c r="H39" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="H39" s="4"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D40" s="2"/>
       <c r="E40" s="9"/>
       <c r="F40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G40" s="9"/>
-      <c r="H40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" s="3"/>
+      <c r="H40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="2"/>
@@ -1826,12 +1829,12 @@
         <v>17</v>
       </c>
       <c r="G41" s="9"/>
-      <c r="H41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="2" t="s">
-        <v>21</v>
+      <c r="H41" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="35" t="s">
+        <v>74</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1841,45 +1844,53 @@
       <c r="F42" s="4"/>
       <c r="G42" s="12"/>
       <c r="H42" s="2" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="I42" s="3"/>
-      <c r="J42" s="2"/>
+      <c r="J42" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="2"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="5"/>
+      <c r="H43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="3"/>
     </row>
     <row r="44" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D44" s="2"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" s="7"/>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="H44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D45" s="2"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K45" s="3"/>
+      <c r="J45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="7"/>
     </row>
     <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="2"/>
@@ -1888,8 +1899,8 @@
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="2" t="s">
-        <v>16</v>
+      <c r="J46" s="39" t="s">
+        <v>14</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1900,8 +1911,8 @@
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="10" t="s">
-        <v>81</v>
+      <c r="J47" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1912,18 +1923,30 @@
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="2"/>
+      <c r="J48" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D49" s="4"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="5"/>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D49" s="2"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D50" s="4"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1936,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D58E5A-C83F-4D7C-AE1A-0B4009A1F100}">
   <dimension ref="B1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K65"/>
+    <sheetView topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2565,7 +2588,7 @@
     </row>
     <row r="30" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="22" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="17" t="s">
@@ -2696,9 +2719,9 @@
       </c>
       <c r="K37" s="17"/>
     </row>
-    <row r="38" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="28" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>39</v>
@@ -2820,7 +2843,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -2836,7 +2859,7 @@
         <v>29</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
@@ -2931,7 +2954,7 @@
     </row>
     <row r="51" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="22" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="17"/>
@@ -3209,6 +3232,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E5573C9871C8B648A90AB124FFA61E68" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="33167b9cc1194ce7aa7164ceb518b3cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="198ba431-8109-4093-9199-4f2115a0242a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb56ae54905529ea7e43d475f0a6b56c" ns2:_="">
     <xsd:import namespace="198ba431-8109-4093-9199-4f2115a0242a"/>
@@ -3398,15 +3430,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3416,6 +3439,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA688857-97A2-4B75-99FC-093B90B4599D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A564944E-53DC-4E66-AB92-67230B91F317}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3429,14 +3460,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA688857-97A2-4B75-99FC-093B90B4599D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
